--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F606"/>
+  <dimension ref="A1:F612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14171,6 +14171,150 @@
         <v>363.5145454545454</v>
       </c>
       <c r="F606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="C607" t="n">
+        <v>367.4561538461539</v>
+      </c>
+      <c r="D607" t="n">
+        <v>375.5471428571428</v>
+      </c>
+      <c r="E607" t="n">
+        <v>358.9727272727272</v>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>364.93</v>
+      </c>
+      <c r="C608" t="n">
+        <v>368.81</v>
+      </c>
+      <c r="D608" t="n">
+        <v>382.1442857142857</v>
+      </c>
+      <c r="E608" t="n">
+        <v>366.1618181818182</v>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>367.66</v>
+      </c>
+      <c r="C609" t="n">
+        <v>371.4138461538461</v>
+      </c>
+      <c r="D609" t="n">
+        <v>371.8514285714285</v>
+      </c>
+      <c r="E609" t="n">
+        <v>370.3809090909091</v>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>384.14</v>
+      </c>
+      <c r="C610" t="n">
+        <v>382.0661538461539</v>
+      </c>
+      <c r="D610" t="n">
+        <v>378.3085714285714</v>
+      </c>
+      <c r="E610" t="n">
+        <v>378.069090909091</v>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>390.16</v>
+      </c>
+      <c r="C611" t="n">
+        <v>386.5430769230769</v>
+      </c>
+      <c r="D611" t="n">
+        <v>381.13</v>
+      </c>
+      <c r="E611" t="n">
+        <v>372.5727272727273</v>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>369.73</v>
+      </c>
+      <c r="C612" t="n">
+        <v>367.0361538461539</v>
+      </c>
+      <c r="D612" t="n">
+        <v>371.6557142857143</v>
+      </c>
+      <c r="E612" t="n">
+        <v>362.7672727272728</v>
+      </c>
+      <c r="F612" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14187,7 +14331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20765,6 +20909,66 @@
       </c>
       <c r="B657" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -20933,28 +21137,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08883401122627012</v>
+        <v>-0.09825844289628111</v>
       </c>
       <c r="J2" t="n">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K2" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003238858867376182</v>
+        <v>0.004008124108032529</v>
       </c>
       <c r="M2" t="n">
-        <v>8.870567197149731</v>
+        <v>8.888276861477902</v>
       </c>
       <c r="N2" t="n">
-        <v>131.0666472888791</v>
+        <v>130.9761239144617</v>
       </c>
       <c r="O2" t="n">
-        <v>11.4484342723745</v>
+        <v>11.44448006308988</v>
       </c>
       <c r="P2" t="n">
-        <v>379.8261024552951</v>
+        <v>379.9175092743483</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -21010,28 +21214,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05427396847782612</v>
+        <v>0.0516287971409272</v>
       </c>
       <c r="J3" t="n">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K3" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00199707892604839</v>
+        <v>0.001833493385617557</v>
       </c>
       <c r="M3" t="n">
-        <v>7.01438286301343</v>
+        <v>7.017584684220775</v>
       </c>
       <c r="N3" t="n">
-        <v>79.63609659834403</v>
+        <v>79.40127082703916</v>
       </c>
       <c r="O3" t="n">
-        <v>8.923905904834722</v>
+        <v>8.91073907299721</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7428878171554</v>
+        <v>373.7684710272658</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -21087,28 +21291,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05550974297554424</v>
+        <v>-0.06521871157074613</v>
       </c>
       <c r="J4" t="n">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K4" t="n">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003456483181301651</v>
+        <v>0.004839887755544225</v>
       </c>
       <c r="M4" t="n">
-        <v>5.323213877611223</v>
+        <v>5.31825271225244</v>
       </c>
       <c r="N4" t="n">
-        <v>48.21042489444297</v>
+        <v>48.04925526408844</v>
       </c>
       <c r="O4" t="n">
-        <v>6.94337273192524</v>
+        <v>6.931757011327535</v>
       </c>
       <c r="P4" t="n">
-        <v>382.4602736913463</v>
+        <v>382.5540517168043</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -21164,28 +21368,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1299455339073061</v>
+        <v>-0.1359851847496455</v>
       </c>
       <c r="J5" t="n">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K5" t="n">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01389424331869082</v>
+        <v>0.01544655247943016</v>
       </c>
       <c r="M5" t="n">
-        <v>6.083486718151541</v>
+        <v>6.0755319418124</v>
       </c>
       <c r="N5" t="n">
-        <v>64.39737201559336</v>
+        <v>64.17906668147479</v>
       </c>
       <c r="O5" t="n">
-        <v>8.024797319284355</v>
+        <v>8.011183850185613</v>
       </c>
       <c r="P5" t="n">
-        <v>374.025374044263</v>
+        <v>374.0835777160596</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -21222,7 +21426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F606"/>
+  <dimension ref="A1:F612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38998,6 +39202,198 @@
         </is>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-36.55172384619216,174.70973424559736</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-36.55244147824817,174.70981693994247</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-36.55314214439791,174.70998366747864</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-36.55387134479427,174.710001976308</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-36.55172294451071,174.70975924255083</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-36.552440599441965,174.70983202394595</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-36.553132193726626,174.71005632281305</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-36.55385614457644,174.71008004300924</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-36.55172184557934,174.7097897075868</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-36.55243890923268,174.70986103494013</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-36.55314771873706,174.70994296600807</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-36.55384722393956,174.71012585831537</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-36.551715211572336,174.70997361371306</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-36.55243199453073,174.70997971860123</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-36.55313797925652,174.7100140795126</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-36.55383096838406,174.71020934461356</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-36.551712788156976,174.71004079300332</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-36.552429088403365,174.7100295986417</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-36.55313372360747,174.71004515233201</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-36.5538425896609,174.71014965936737</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-36.55172101231851,174.70981280744846</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-36.552441750877435,174.70981226047311</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-36.553148013937474,174.7099408105763</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-36.55386332182265,174.7100431814728</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -20982,7 +20982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21073,35 +21073,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -21160,27 +21165,28 @@
       <c r="P2" t="n">
         <v>379.9175092743483</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.70568684897657 -36.55186977315394, 174.71597173012387 -36.551498686807356)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7056868489766</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.55186977315394</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7159717301239</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.55149868680736</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7108292895502</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.55168422998065</v>
       </c>
     </row>
@@ -21237,27 +21243,28 @@
       <c r="P3" t="n">
         <v>373.7684710272658</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.7057228773967 -36.552679930472195, 174.7159913061154 -36.552081593846225)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7057228773967</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.55267993047219</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7159913061154</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.55208159384622</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7108570917561</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.55238076215921</v>
       </c>
     </row>
@@ -21314,27 +21321,28 @@
       <c r="P4" t="n">
         <v>382.5540517168043</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.7058476762814 -36.553708521324566, 174.715997345988 -36.552318370074616)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7058476762814</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.55370852132457</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.715997345988</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.55231837007462</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7109225111347</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.55301344569959</v>
       </c>
     </row>
@@ -21391,27 +21399,28 @@
       <c r="P5" t="n">
         <v>374.0835777160596</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.7061038319682 -36.554630272894435, 174.71611103062818 -36.55268169111079)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7061038319682</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.55463027289444</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7161110306282</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.55268169111079</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7111074312982</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.55365598200261</v>
       </c>
     </row>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F612"/>
+  <dimension ref="A1:F618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14317,6 +14317,144 @@
       <c r="F612" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>371.5</v>
+      </c>
+      <c r="C613" t="n">
+        <v>370.6984615384616</v>
+      </c>
+      <c r="D613" t="n">
+        <v>386.6628571428572</v>
+      </c>
+      <c r="E613" t="n">
+        <v>369.37</v>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>386.75</v>
+      </c>
+      <c r="C614" t="n">
+        <v>385.9423076923077</v>
+      </c>
+      <c r="D614" t="n">
+        <v>382.5271428571429</v>
+      </c>
+      <c r="E614" t="n">
+        <v>380.5281818181818</v>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr"/>
+      <c r="E615" t="n">
+        <v>356.5427272727272</v>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>365.74</v>
+      </c>
+      <c r="C616" t="n">
+        <v>369.4438461538462</v>
+      </c>
+      <c r="D616" t="n">
+        <v>383.8571428571428</v>
+      </c>
+      <c r="E616" t="n">
+        <v>368.1836363636364</v>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>374.69</v>
+      </c>
+      <c r="C617" t="n">
+        <v>375.4569230769231</v>
+      </c>
+      <c r="D617" t="n">
+        <v>383.0057142857143</v>
+      </c>
+      <c r="E617" t="n">
+        <v>375.0054545454545</v>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>352.15</v>
+      </c>
+      <c r="C618" t="n">
+        <v>371.0861538461539</v>
+      </c>
+      <c r="D618" t="n">
+        <v>363.1042857142857</v>
+      </c>
+      <c r="E618" t="n">
+        <v>353.7518181818182</v>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14331,7 +14469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20969,6 +21107,76 @@
       </c>
       <c r="B663" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -21142,28 +21350,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09825844289628111</v>
+        <v>-0.1113512046478127</v>
       </c>
       <c r="J2" t="n">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="K2" t="n">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004008124108032529</v>
+        <v>0.005173348076932482</v>
       </c>
       <c r="M2" t="n">
-        <v>8.888276861477902</v>
+        <v>8.902766513861209</v>
       </c>
       <c r="N2" t="n">
-        <v>130.9761239144617</v>
+        <v>131.4339804049363</v>
       </c>
       <c r="O2" t="n">
-        <v>11.44448006308988</v>
+        <v>11.46446598865103</v>
       </c>
       <c r="P2" t="n">
-        <v>379.9175092743483</v>
+        <v>380.0466739617213</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21220,28 +21428,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0516287971409272</v>
+        <v>0.050613030322272</v>
       </c>
       <c r="J3" t="n">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="K3" t="n">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001833493385617557</v>
+        <v>0.001788144622400067</v>
       </c>
       <c r="M3" t="n">
-        <v>7.017584684220775</v>
+        <v>6.998534739799492</v>
       </c>
       <c r="N3" t="n">
-        <v>79.40127082703916</v>
+        <v>78.99678481942732</v>
       </c>
       <c r="O3" t="n">
-        <v>8.91073907299721</v>
+        <v>8.888013547437208</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7684710272658</v>
+        <v>373.7784884309991</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21298,28 +21506,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06521871157074613</v>
+        <v>-0.0672352890781189</v>
       </c>
       <c r="J4" t="n">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="K4" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004839887755544225</v>
+        <v>0.005168914262157931</v>
       </c>
       <c r="M4" t="n">
-        <v>5.31825271225244</v>
+        <v>5.326307869435665</v>
       </c>
       <c r="N4" t="n">
-        <v>48.04925526408844</v>
+        <v>48.2948207840643</v>
       </c>
       <c r="O4" t="n">
-        <v>6.931757011327535</v>
+        <v>6.949447516462319</v>
       </c>
       <c r="P4" t="n">
-        <v>382.5540517168043</v>
+        <v>382.5739659301356</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21376,28 +21584,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1359851847496455</v>
+        <v>-0.1438180019491062</v>
       </c>
       <c r="J5" t="n">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="K5" t="n">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01544655247943016</v>
+        <v>0.01735343245753307</v>
       </c>
       <c r="M5" t="n">
-        <v>6.0755319418124</v>
+        <v>6.097119328555777</v>
       </c>
       <c r="N5" t="n">
-        <v>64.17906668147479</v>
+        <v>64.6174985543568</v>
       </c>
       <c r="O5" t="n">
-        <v>8.011183850185613</v>
+        <v>8.038501014141678</v>
       </c>
       <c r="P5" t="n">
-        <v>374.0835777160596</v>
+        <v>374.1601422798267</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21435,7 +21643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F612"/>
+  <dimension ref="A1:F618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39403,6 +39611,186 @@
         </is>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-36.55172029981658,174.70983255950355</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-36.55243937360403,174.70985306441602</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-36.55312537820259,174.7101060865134</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-36.553849361357265,174.71011488080714</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-36.55171416089357,174.7100027396187</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-36.552429478384894,174.71002290511765</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-36.553131616250205,174.71006053927616</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-36.5538257689776,174.71023604798003</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr"/>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-36.553876482641016,174.70997558880794</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-36.55172261845494,174.70976828162756</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-36.55244018800025,174.709839086002</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-36.553129610164916,174.7100751867651</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-36.55385186974636,174.71010199802913</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-36.5517190156947,174.70986815783886</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-36.5524362847756,174.70990608125476</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-36.55313089440447,174.71006580985497</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-36.553837446009744,174.7101760764585</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-36.55172808885536,174.70961662599316</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-36.552439121944786,174.70985738392588</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-36.55316091221864,174.7098466323512</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-36.55388238356528,174.70994528217213</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F618"/>
+  <dimension ref="A1:F620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14453,6 +14453,54 @@
         <v>353.7518181818182</v>
       </c>
       <c r="F618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>377.17</v>
+      </c>
+      <c r="C619" t="n">
+        <v>372.8453846153847</v>
+      </c>
+      <c r="D619" t="n">
+        <v>388.5128571428572</v>
+      </c>
+      <c r="E619" t="n">
+        <v>370.0527272727272</v>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>375.06</v>
+      </c>
+      <c r="C620" t="n">
+        <v>374.1461538461539</v>
+      </c>
+      <c r="D620" t="n">
+        <v>388.6085714285715</v>
+      </c>
+      <c r="E620" t="n">
+        <v>370.3536363636364</v>
+      </c>
+      <c r="F620" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14469,7 +14517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21177,6 +21225,26 @@
       </c>
       <c r="B670" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -21350,28 +21418,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1113512046478127</v>
+        <v>-0.112124561590909</v>
       </c>
       <c r="J2" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K2" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005173348076932482</v>
+        <v>0.005284972767334972</v>
       </c>
       <c r="M2" t="n">
-        <v>8.902766513861209</v>
+        <v>8.872739907025077</v>
       </c>
       <c r="N2" t="n">
-        <v>131.4339804049363</v>
+        <v>130.9445952660993</v>
       </c>
       <c r="O2" t="n">
-        <v>11.46446598865103</v>
+        <v>11.44310251925147</v>
       </c>
       <c r="P2" t="n">
-        <v>380.0466739617213</v>
+        <v>380.0543514558324</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21428,28 +21496,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.050613030322272</v>
+        <v>0.04947158858274975</v>
       </c>
       <c r="J3" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K3" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001788144622400067</v>
+        <v>0.001721380815056239</v>
       </c>
       <c r="M3" t="n">
-        <v>6.998534739799492</v>
+        <v>6.977558324390976</v>
       </c>
       <c r="N3" t="n">
-        <v>78.99678481942732</v>
+        <v>78.70745344449078</v>
       </c>
       <c r="O3" t="n">
-        <v>8.888013547437208</v>
+        <v>8.871722123944751</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7784884309991</v>
+        <v>373.7898109255859</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21506,28 +21574,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0672352890781189</v>
+        <v>-0.06145916178544972</v>
       </c>
       <c r="J4" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K4" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005168914262157931</v>
+        <v>0.004336719639483122</v>
       </c>
       <c r="M4" t="n">
-        <v>5.326307869435665</v>
+        <v>5.333037813194427</v>
       </c>
       <c r="N4" t="n">
-        <v>48.2948207840643</v>
+        <v>48.33603575411531</v>
       </c>
       <c r="O4" t="n">
-        <v>6.949447516462319</v>
+        <v>6.952412225559939</v>
       </c>
       <c r="P4" t="n">
-        <v>382.5739659301356</v>
+        <v>382.5172165494116</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21584,28 +21652,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1438180019491062</v>
+        <v>-0.1440173771976311</v>
       </c>
       <c r="J5" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K5" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01735343245753307</v>
+        <v>0.01754381460151044</v>
       </c>
       <c r="M5" t="n">
-        <v>6.097119328555777</v>
+        <v>6.073763093837245</v>
       </c>
       <c r="N5" t="n">
-        <v>64.6174985543568</v>
+        <v>64.36041598032907</v>
       </c>
       <c r="O5" t="n">
-        <v>8.038501014141678</v>
+        <v>8.022494373966806</v>
       </c>
       <c r="P5" t="n">
-        <v>374.1601422798267</v>
+        <v>374.1620992467707</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21643,7 +21711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F618"/>
+  <dimension ref="A1:F620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39791,6 +39859,70 @@
         </is>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-36.551718017373176,174.7098958330326</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-36.552437979989065,174.70987698455843</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-36.553122587775015,174.7101264608363</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-36.55384791783157,174.71012229457398</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-36.55171886675198,174.70987228679925</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-36.552437135628836,174.70989147719882</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-36.55312244340531,174.71012751495178</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-36.55384728160373,174.71012556215956</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F620"/>
+  <dimension ref="A1:F622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14503,6 +14503,54 @@
       <c r="F620" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>376.77</v>
+      </c>
+      <c r="C621" t="n">
+        <v>390.8461538461539</v>
+      </c>
+      <c r="D621" t="n">
+        <v>382.4842857142857</v>
+      </c>
+      <c r="E621" t="n">
+        <v>374.1172727272727</v>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>369.64</v>
+      </c>
+      <c r="C622" t="n">
+        <v>368.7430769230769</v>
+      </c>
+      <c r="D622" t="n">
+        <v>384.5371428571429</v>
+      </c>
+      <c r="E622" t="n">
+        <v>364.1254545454545</v>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14517,7 +14565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B672"/>
+  <dimension ref="A1:B674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21245,6 +21293,26 @@
       </c>
       <c r="B672" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -21418,28 +21486,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.112124561590909</v>
+        <v>-0.1149705083673561</v>
       </c>
       <c r="J2" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K2" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005284972767334972</v>
+        <v>0.005593029407042538</v>
       </c>
       <c r="M2" t="n">
-        <v>8.872739907025077</v>
+        <v>8.85290138858114</v>
       </c>
       <c r="N2" t="n">
-        <v>130.9445952660993</v>
+        <v>130.5568860491317</v>
       </c>
       <c r="O2" t="n">
-        <v>11.44310251925147</v>
+        <v>11.42614922225032</v>
       </c>
       <c r="P2" t="n">
-        <v>380.0543514558324</v>
+        <v>380.0826689097383</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21496,28 +21564,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04947158858274975</v>
+        <v>0.05285400377564597</v>
       </c>
       <c r="J3" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K3" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001721380815056239</v>
+        <v>0.001965636817651606</v>
       </c>
       <c r="M3" t="n">
-        <v>6.977558324390976</v>
+        <v>6.994147565373152</v>
       </c>
       <c r="N3" t="n">
-        <v>78.70745344449078</v>
+        <v>78.95578549979713</v>
       </c>
       <c r="O3" t="n">
-        <v>8.871722123944751</v>
+        <v>8.885706809241295</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7898109255859</v>
+        <v>373.7561904887809</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21574,28 +21642,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06145916178544972</v>
+        <v>-0.05954146470292521</v>
       </c>
       <c r="J4" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K4" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004336719639483122</v>
+        <v>0.004101454028245577</v>
       </c>
       <c r="M4" t="n">
-        <v>5.333037813194427</v>
+        <v>5.3213678235826</v>
       </c>
       <c r="N4" t="n">
-        <v>48.33603575411531</v>
+        <v>48.17729551337198</v>
       </c>
       <c r="O4" t="n">
-        <v>6.952412225559939</v>
+        <v>6.940986638322536</v>
       </c>
       <c r="P4" t="n">
-        <v>382.5172165494116</v>
+        <v>382.4983177746753</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21652,28 +21720,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1440173771976311</v>
+        <v>-0.1450392902338593</v>
       </c>
       <c r="J5" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K5" t="n">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01754381460151044</v>
+        <v>0.01790566204557398</v>
       </c>
       <c r="M5" t="n">
-        <v>6.073763093837245</v>
+        <v>6.06899195373542</v>
       </c>
       <c r="N5" t="n">
-        <v>64.36041598032907</v>
+        <v>64.21092420126679</v>
       </c>
       <c r="O5" t="n">
-        <v>8.022494373966806</v>
+        <v>8.013171918863765</v>
       </c>
       <c r="P5" t="n">
-        <v>374.1620992467707</v>
+        <v>374.1721845900748</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21711,7 +21779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F620"/>
+  <dimension ref="A1:F622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23378,7 +23446,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-36.553837251873325,174.71017707351606</t>
+          <t>-36.55383725187332,174.71017707351606</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -39923,6 +39991,70 @@
         </is>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-36.55171817839321,174.70989136929174</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-36.55242629510604,174.71007754175537</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-36.55313168089309,174.71006006728402</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-36.55383932394284,174.71016643165402</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-36.55172104854734,174.70981180310665</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-36.552440642883006,174.70983127831624</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>-36.55312858449656,174.71008267570647</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>-36.55386045015665,174.71005793003698</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F622"/>
+  <dimension ref="A1:F623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14551,6 +14551,30 @@
       <c r="F622" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>380.32</v>
+      </c>
+      <c r="C623" t="n">
+        <v>384.65</v>
+      </c>
+      <c r="D623" t="n">
+        <v>382.7628571428572</v>
+      </c>
+      <c r="E623" t="n">
+        <v>370.9318181818182</v>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B674"/>
+  <dimension ref="A1:B675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21313,6 +21337,16 @@
       </c>
       <c r="B674" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -21486,28 +21520,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1149705083673561</v>
+        <v>-0.1138231424876018</v>
       </c>
       <c r="J2" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K2" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005593029407042538</v>
+        <v>0.005502537697396948</v>
       </c>
       <c r="M2" t="n">
-        <v>8.85290138858114</v>
+        <v>8.842745684128847</v>
       </c>
       <c r="N2" t="n">
-        <v>130.5568860491317</v>
+        <v>130.330239835777</v>
       </c>
       <c r="O2" t="n">
-        <v>11.42614922225032</v>
+        <v>11.41622704030439</v>
       </c>
       <c r="P2" t="n">
-        <v>380.0826689097383</v>
+        <v>380.0712394394041</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21564,28 +21598,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05285400377564597</v>
+        <v>0.05626108796373967</v>
       </c>
       <c r="J3" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K3" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001965636817651606</v>
+        <v>0.002230245849628387</v>
       </c>
       <c r="M3" t="n">
-        <v>6.994147565373152</v>
+        <v>7.000039765437591</v>
       </c>
       <c r="N3" t="n">
-        <v>78.95578549979713</v>
+        <v>78.97724115232002</v>
       </c>
       <c r="O3" t="n">
-        <v>8.885706809241295</v>
+        <v>8.886914039885838</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7561904887809</v>
+        <v>373.7222250406322</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21642,28 +21676,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05954146470292521</v>
+        <v>-0.0588736467322129</v>
       </c>
       <c r="J4" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K4" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004101454028245577</v>
+        <v>0.004025734919684609</v>
       </c>
       <c r="M4" t="n">
-        <v>5.3213678235826</v>
+        <v>5.314176481477876</v>
       </c>
       <c r="N4" t="n">
-        <v>48.17729551337198</v>
+        <v>48.08983831940285</v>
       </c>
       <c r="O4" t="n">
-        <v>6.940986638322536</v>
+        <v>6.934683721656154</v>
       </c>
       <c r="P4" t="n">
-        <v>382.4983177746753</v>
+        <v>382.4917271650878</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21720,28 +21754,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1450392902338593</v>
+        <v>-0.144847539492492</v>
       </c>
       <c r="J5" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K5" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01790566204557398</v>
+        <v>0.0179314943629183</v>
       </c>
       <c r="M5" t="n">
-        <v>6.06899195373542</v>
+        <v>6.05805404789255</v>
       </c>
       <c r="N5" t="n">
-        <v>64.21092420126679</v>
+        <v>64.08427035693214</v>
       </c>
       <c r="O5" t="n">
-        <v>8.013171918863765</v>
+        <v>8.005265164685811</v>
       </c>
       <c r="P5" t="n">
-        <v>374.1721845900748</v>
+        <v>374.1702929482943</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21779,7 +21813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F622"/>
+  <dimension ref="A1:F623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40055,6 +40089,38 @@
         </is>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-36.55171674933459,174.709930984991</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>-36.55243031726834,174.71000850675574</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>-36.55313126071428,174.7100631352329</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>-36.55384605912338,174.71013184066217</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F623"/>
+  <dimension ref="A1:F624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14573,6 +14573,30 @@
         <v>370.9318181818182</v>
       </c>
       <c r="F623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>354.9</v>
+      </c>
+      <c r="C624" t="n">
+        <v>375.5492307692308</v>
+      </c>
+      <c r="D624" t="n">
+        <v>375.1685714285715</v>
+      </c>
+      <c r="E624" t="n">
+        <v>356.0863636363636</v>
+      </c>
+      <c r="F624" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14589,7 +14613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B675"/>
+  <dimension ref="A1:B677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21347,6 +21371,26 @@
       </c>
       <c r="B675" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -21520,28 +21564,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1138231424876018</v>
+        <v>-0.1217709513436013</v>
       </c>
       <c r="J2" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K2" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005502537697396948</v>
+        <v>0.006272402055062409</v>
       </c>
       <c r="M2" t="n">
-        <v>8.842745684128847</v>
+        <v>8.864341772722673</v>
       </c>
       <c r="N2" t="n">
-        <v>130.330239835777</v>
+        <v>131.0088135756156</v>
       </c>
       <c r="O2" t="n">
-        <v>11.41622704030439</v>
+        <v>11.44590815862226</v>
       </c>
       <c r="P2" t="n">
-        <v>380.0712394394041</v>
+        <v>380.1505837194107</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21598,28 +21642,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05626108796373967</v>
+        <v>0.05639415286463823</v>
       </c>
       <c r="J3" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K3" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002230245849628387</v>
+        <v>0.002249261849414985</v>
       </c>
       <c r="M3" t="n">
-        <v>7.000039765437591</v>
+        <v>6.987574216489457</v>
       </c>
       <c r="N3" t="n">
-        <v>78.97724115232002</v>
+        <v>78.82848818450142</v>
       </c>
       <c r="O3" t="n">
-        <v>8.886914039885838</v>
+        <v>8.87854088150195</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7222250406322</v>
+        <v>373.7208955978363</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21676,28 +21720,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0588736467322129</v>
+        <v>-0.06102092778571685</v>
       </c>
       <c r="J4" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K4" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004025734919684609</v>
+        <v>0.004334782771833079</v>
       </c>
       <c r="M4" t="n">
-        <v>5.314176481477876</v>
+        <v>5.316151979262208</v>
       </c>
       <c r="N4" t="n">
-        <v>48.08983831940285</v>
+        <v>48.06142562323623</v>
       </c>
       <c r="O4" t="n">
-        <v>6.934683721656154</v>
+        <v>6.932634825463998</v>
       </c>
       <c r="P4" t="n">
-        <v>382.4917271650878</v>
+        <v>382.5129643887321</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21754,28 +21798,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.144847539492492</v>
+        <v>-0.1503110127007669</v>
       </c>
       <c r="J5" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K5" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0179314943629183</v>
+        <v>0.01924207191945804</v>
       </c>
       <c r="M5" t="n">
-        <v>6.05805404789255</v>
+        <v>6.071829392019643</v>
       </c>
       <c r="N5" t="n">
-        <v>64.08427035693214</v>
+        <v>64.36153913446044</v>
       </c>
       <c r="O5" t="n">
-        <v>8.005265164685811</v>
+        <v>8.022564373967992</v>
       </c>
       <c r="P5" t="n">
-        <v>374.1702929482943</v>
+        <v>374.2243056848818</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21813,7 +21857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F623"/>
+  <dimension ref="A1:F624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40121,6 +40165,38 @@
         </is>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-36.5517269819098,174.70964731422177</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-36.55243622485629,174.70990710970938</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-36.55314271540739,174.7099794982135</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-36.55387744754836,174.70997063313035</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F624"/>
+  <dimension ref="A1:F627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14597,6 +14597,78 @@
         <v>356.0863636363636</v>
       </c>
       <c r="F624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>377.38</v>
+      </c>
+      <c r="C625" t="n">
+        <v>377.1007692307692</v>
+      </c>
+      <c r="D625" t="n">
+        <v>380.9185714285715</v>
+      </c>
+      <c r="E625" t="n">
+        <v>374.2472727272727</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>379.09</v>
+      </c>
+      <c r="C626" t="n">
+        <v>375.4992307692308</v>
+      </c>
+      <c r="D626" t="n">
+        <v>379.6471428571429</v>
+      </c>
+      <c r="E626" t="n">
+        <v>376.5354545454546</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>380.84</v>
+      </c>
+      <c r="C627" t="n">
+        <v>378.4346153846154</v>
+      </c>
+      <c r="D627" t="n">
+        <v>376.4957142857143</v>
+      </c>
+      <c r="E627" t="n">
+        <v>376.1563636363636</v>
+      </c>
+      <c r="F627" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14613,7 +14685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B677"/>
+  <dimension ref="A1:B680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21391,6 +21463,36 @@
       </c>
       <c r="B677" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -21564,28 +21666,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1217709513436013</v>
+        <v>-0.1195249935255398</v>
       </c>
       <c r="J2" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K2" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006272402055062409</v>
+        <v>0.006111937988727001</v>
       </c>
       <c r="M2" t="n">
-        <v>8.864341772722673</v>
+        <v>8.827268336755791</v>
       </c>
       <c r="N2" t="n">
-        <v>131.0088135756156</v>
+        <v>130.3099649968468</v>
       </c>
       <c r="O2" t="n">
-        <v>11.44590815862226</v>
+        <v>11.41533902242272</v>
       </c>
       <c r="P2" t="n">
-        <v>380.1505837194107</v>
+        <v>380.1280548854256</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21642,28 +21744,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05639415286463823</v>
+        <v>0.05833533465164822</v>
       </c>
       <c r="J3" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K3" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002249261849414985</v>
+        <v>0.00243303038250009</v>
       </c>
       <c r="M3" t="n">
-        <v>6.987574216489457</v>
+        <v>6.958919808687196</v>
       </c>
       <c r="N3" t="n">
-        <v>78.82848818450142</v>
+        <v>78.41139404302014</v>
       </c>
       <c r="O3" t="n">
-        <v>8.87854088150195</v>
+        <v>8.855020838090677</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7208955978363</v>
+        <v>373.7014144939992</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21720,28 +21822,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06102092778571685</v>
+        <v>-0.06312432802546034</v>
       </c>
       <c r="J4" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K4" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004334782771833079</v>
+        <v>0.004688834123984575</v>
       </c>
       <c r="M4" t="n">
-        <v>5.316151979262208</v>
+        <v>5.297332906202267</v>
       </c>
       <c r="N4" t="n">
-        <v>48.06142562323623</v>
+        <v>47.82383018996261</v>
       </c>
       <c r="O4" t="n">
-        <v>6.932634825463998</v>
+        <v>6.915477582203749</v>
       </c>
       <c r="P4" t="n">
-        <v>382.5129643887321</v>
+        <v>382.5338717751425</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21798,28 +21900,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1503110127007669</v>
+        <v>-0.1442918130504646</v>
       </c>
       <c r="J5" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K5" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01924207191945804</v>
+        <v>0.01792883302151171</v>
       </c>
       <c r="M5" t="n">
-        <v>6.071829392019643</v>
+        <v>6.069654667672295</v>
       </c>
       <c r="N5" t="n">
-        <v>64.36153913446044</v>
+        <v>64.15192690675372</v>
       </c>
       <c r="O5" t="n">
-        <v>8.022564373967992</v>
+        <v>8.00948980314937</v>
       </c>
       <c r="P5" t="n">
-        <v>374.2243056848818</v>
+        <v>374.1645472985838</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21857,7 +21959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F624"/>
+  <dimension ref="A1:F627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40197,6 +40299,102 @@
         </is>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-36.5517179328376,174.70989817649655</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-36.55243521771124,174.70992439631732</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-36.5531340425121,174.71004282383734</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-36.55383904907654,174.71016784332963</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-36.55171724447469,174.70991725898838</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-36.552436257312586,174.7099065526298</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-36.55313596024833,174.71002882140257</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-36.553834211042336,174.71019269079306</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-36.55171654000658,174.70993678785382</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-36.55243435187409,174.709939257486</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-36.553140713641476,174.70999411424083</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-36.55383501257637,174.71018857422902</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F627"/>
+  <dimension ref="A1:F629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14669,6 +14669,54 @@
         <v>376.1563636363636</v>
       </c>
       <c r="F627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>366.05</v>
+      </c>
+      <c r="C628" t="n">
+        <v>362.0107692307692</v>
+      </c>
+      <c r="D628" t="n">
+        <v>374.0357142857143</v>
+      </c>
+      <c r="E628" t="n">
+        <v>363.0163636363636</v>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>369.78</v>
+      </c>
+      <c r="C629" t="n">
+        <v>368.7238461538461</v>
+      </c>
+      <c r="D629" t="n">
+        <v>384.68</v>
+      </c>
+      <c r="E629" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="F629" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14685,7 +14733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21493,6 +21541,26 @@
       </c>
       <c r="B680" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>-0.77</v>
       </c>
     </row>
   </sheetData>
@@ -21666,28 +21734,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1195249935255398</v>
+        <v>-0.1259489599316612</v>
       </c>
       <c r="J2" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K2" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006111937988727001</v>
+        <v>0.006816710761001987</v>
       </c>
       <c r="M2" t="n">
-        <v>8.827268336755791</v>
+        <v>8.825650539165968</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3099649968468</v>
+        <v>130.142835417168</v>
       </c>
       <c r="O2" t="n">
-        <v>11.41533902242272</v>
+        <v>11.40801627879133</v>
       </c>
       <c r="P2" t="n">
-        <v>380.1280548854256</v>
+        <v>380.1926933423668</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21744,28 +21812,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05833533465164822</v>
+        <v>0.05139551070141163</v>
       </c>
       <c r="J3" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K3" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00243303038250009</v>
+        <v>0.001894199206039393</v>
       </c>
       <c r="M3" t="n">
-        <v>6.958919808687196</v>
+        <v>6.967965041670868</v>
       </c>
       <c r="N3" t="n">
-        <v>78.41139404302014</v>
+        <v>78.51910210711975</v>
       </c>
       <c r="O3" t="n">
-        <v>8.855020838090677</v>
+        <v>8.86110050203245</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7014144939992</v>
+        <v>373.7712964858341</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21822,28 +21890,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06312432802546034</v>
+        <v>-0.06423929436988501</v>
       </c>
       <c r="J4" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K4" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004688834123984575</v>
+        <v>0.004881519595977601</v>
       </c>
       <c r="M4" t="n">
-        <v>5.297332906202267</v>
+        <v>5.29796049239585</v>
       </c>
       <c r="N4" t="n">
-        <v>47.82383018996261</v>
+        <v>47.75781360073444</v>
       </c>
       <c r="O4" t="n">
-        <v>6.915477582203749</v>
+        <v>6.910702829722491</v>
       </c>
       <c r="P4" t="n">
-        <v>382.5338717751425</v>
+        <v>382.5449640577604</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21900,28 +21968,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1442918130504646</v>
+        <v>-0.1484197835732202</v>
       </c>
       <c r="J5" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K5" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01792883302151171</v>
+        <v>0.0190641611924508</v>
       </c>
       <c r="M5" t="n">
-        <v>6.069654667672295</v>
+        <v>6.065644560145374</v>
       </c>
       <c r="N5" t="n">
-        <v>64.15192690675372</v>
+        <v>64.03198358363083</v>
       </c>
       <c r="O5" t="n">
-        <v>8.00948980314937</v>
+        <v>8.001998724295751</v>
       </c>
       <c r="P5" t="n">
-        <v>374.1645472985838</v>
+        <v>374.2056703149622</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21959,7 +22027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F627"/>
+  <dimension ref="A1:F629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40395,6 +40463,70 @@
         </is>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-36.55172249366801,174.70977174102725</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-36.55244501292729,174.70975626967646</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-36.55314442412544,174.70996702188378</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-36.55386279515846,174.7100458863635</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-36.551720992191385,174.70981336541612</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-36.55244065536606,174.70983106405484</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-36.55312836901997,174.71008424901345</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-36.55385479523752,174.71008697305626</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F629"/>
+  <dimension ref="A1:F630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14717,6 +14717,30 @@
         <v>366.8</v>
       </c>
       <c r="F629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>364.71</v>
+      </c>
+      <c r="C630" t="n">
+        <v>365.8169230769231</v>
+      </c>
+      <c r="D630" t="n">
+        <v>379.4971428571428</v>
+      </c>
+      <c r="E630" t="n">
+        <v>362.5909090909091</v>
+      </c>
+      <c r="F630" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14733,7 +14757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21561,6 +21585,16 @@
       </c>
       <c r="B682" t="n">
         <v>-0.77</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -22027,7 +22061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F629"/>
+  <dimension ref="A1:F630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40527,6 +40561,38 @@
         </is>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-36.55172303306893,174.70975678749295</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-36.55244254230018,174.70979867629904</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-36.553136186498,174.7100271694299</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-36.55386369471622,174.71004126633116</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -21768,28 +21768,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1259489599316612</v>
+        <v>-0.1302523209199825</v>
       </c>
       <c r="J2" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K2" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006816710761001987</v>
+        <v>0.007299167849999399</v>
       </c>
       <c r="M2" t="n">
-        <v>8.825650539165968</v>
+        <v>8.830027245135497</v>
       </c>
       <c r="N2" t="n">
-        <v>130.142835417168</v>
+        <v>130.1760101183231</v>
       </c>
       <c r="O2" t="n">
-        <v>11.40801627879133</v>
+        <v>11.40947019446228</v>
       </c>
       <c r="P2" t="n">
-        <v>380.1926933423668</v>
+        <v>380.2361182968941</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21846,28 +21846,28 @@
         <v>0.0708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05139551070141163</v>
+        <v>0.04812185324874711</v>
       </c>
       <c r="J3" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K3" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001894199206039393</v>
+        <v>0.001663839863103256</v>
       </c>
       <c r="M3" t="n">
-        <v>6.967965041670868</v>
+        <v>6.971418597124656</v>
       </c>
       <c r="N3" t="n">
-        <v>78.51910210711975</v>
+        <v>78.53286227448167</v>
       </c>
       <c r="O3" t="n">
-        <v>8.86110050203245</v>
+        <v>8.86187690472406</v>
       </c>
       <c r="P3" t="n">
-        <v>373.7712964858341</v>
+        <v>373.8043592819852</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21924,28 +21924,28 @@
         <v>0.0725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06423929436988501</v>
+        <v>-0.06473999194491499</v>
       </c>
       <c r="J4" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K4" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004881519595977601</v>
+        <v>0.004976708063511914</v>
       </c>
       <c r="M4" t="n">
-        <v>5.29796049239585</v>
+        <v>5.290647971208399</v>
       </c>
       <c r="N4" t="n">
-        <v>47.75781360073444</v>
+        <v>47.66974654390533</v>
       </c>
       <c r="O4" t="n">
-        <v>6.910702829722491</v>
+        <v>6.904328102277971</v>
       </c>
       <c r="P4" t="n">
-        <v>382.5449640577604</v>
+        <v>382.5499694637734</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22002,28 +22002,28 @@
         <v>0.0611</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1484197835732202</v>
+        <v>-0.1513234876133423</v>
       </c>
       <c r="J5" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K5" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0190641611924508</v>
+        <v>0.019846573237845</v>
       </c>
       <c r="M5" t="n">
-        <v>6.065644560145374</v>
+        <v>6.067633354712066</v>
       </c>
       <c r="N5" t="n">
-        <v>64.03198358363083</v>
+        <v>64.02340012166937</v>
       </c>
       <c r="O5" t="n">
-        <v>8.001998724295751</v>
+        <v>8.001462373945738</v>
       </c>
       <c r="P5" t="n">
-        <v>374.2056703149622</v>
+        <v>374.2346811428657</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">

--- a/data/nzd0134/nzd0134.xlsx
+++ b/data/nzd0134/nzd0134.xlsx
@@ -21759,13 +21759,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0365</v>
+        <v>0.0431</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0407</v>
+        <v>0.0521</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1302523209199825</v>
@@ -21837,13 +21837,13 @@
         <v>0.3333853747913545</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.115</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.1062</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0708</v>
+        <v>0.1244</v>
       </c>
       <c r="I3" t="n">
         <v>0.04811532839739689</v>
@@ -21915,13 +21915,13 @@
         <v>0.6667005998689048</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0725</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>-0.0647293718379478</v>
@@ -21993,13 +21993,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0529</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0611</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1513349869044092</v>
